--- a/data/trans_camb/P32C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.248729106847841</v>
+        <v>-2.056519151744354</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.341550588110009</v>
+        <v>-4.164091316471909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.322920414216753</v>
+        <v>-8.950418884839136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.971648398232035</v>
+        <v>-4.455682150054845</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.253222631485291</v>
+        <v>-3.368602723870198</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.779093307650363</v>
+        <v>-6.910545068134343</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.259180234646143</v>
+        <v>-2.183256880587515</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.750007550344874</v>
+        <v>-2.873033719137781</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.671908574400375</v>
+        <v>-6.287613420130868</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.911430304706391</v>
+        <v>8.167670945370222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.966046499534619</v>
+        <v>5.43199574179151</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.312450378008461</v>
+        <v>-1.295764557763991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.859427603797278</v>
+        <v>1.836359056539028</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.908100677320374</v>
+        <v>3.900611206556286</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.664237725406926</v>
+        <v>4.485283200918114</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.78706484038248</v>
+        <v>3.854096707105011</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.279187986909714</v>
+        <v>-1.277408242197124</v>
       </c>
     </row>
     <row r="7">
@@ -780,20 +780,20 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4874301782842823</v>
+        <v>-0.4128244124001429</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7777227167212678</v>
+        <v>-0.6647753201457013</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.5119979404692576</v>
+        <v>-0.5200952408857331</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6009109739099889</v>
+        <v>-0.6220743707898694</v>
       </c>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
@@ -805,20 +805,20 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.94780879232873</v>
+        <v>6.365286131619645</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.193296741926279</v>
+        <v>3.997756629456723</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.244306141316125</v>
+        <v>3.108995445828516</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.039317442101808</v>
+        <v>2.877495759903547</v>
       </c>
       <c r="K9" s="6" t="inlineStr"/>
     </row>
@@ -869,25 +869,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.589450012234292</v>
+        <v>-3.711237102472511</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.837551516249536</v>
+        <v>-2.699988035379587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.670613539244435</v>
+        <v>-5.468082599388958</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>-3.079530166402269</v>
+        <v>-2.942710903785627</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.197961770248421</v>
+        <v>-2.091675180776039</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.083910583835992</v>
+        <v>-4.334840652100316</v>
       </c>
     </row>
     <row r="12">
@@ -898,25 +898,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.162802402206548</v>
+        <v>1.308567171628004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.027949877794404</v>
+        <v>2.866757642206269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.9032733290209434</v>
+        <v>-0.908794090238971</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.6196042236076696</v>
+        <v>0.723603039972609</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.280383393885352</v>
+        <v>2.260249104493541</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.7223339711870608</v>
+        <v>-0.705375332355349</v>
       </c>
     </row>
     <row r="13">
@@ -956,20 +956,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8810748666555793</v>
+        <v>-0.8633251938167634</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6818177706777914</v>
+        <v>-0.6771320666665368</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.8870324777546336</v>
+        <v>-0.8800472723310895</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7309470018552726</v>
+        <v>-0.6892036036605911</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
     </row>
@@ -981,20 +981,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.293063797190871</v>
+        <v>1.702746476401521</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.676350980574943</v>
+        <v>2.978936816368463</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>0.9916968600062191</v>
+        <v>1.037828727173771</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.239180750779524</v>
+        <v>2.82041302818716</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.430327797930112</v>
+        <v>-2.442734112959608</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.030717547393052</v>
+        <v>-1.031222361529713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1654865793063492</v>
+        <v>0.1531817055748289</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.785253044617741</v>
+        <v>-1.682189866230992</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5335613939495791</v>
+        <v>-0.4381357867181756</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.387969388248882</v>
+        <v>0.2555643236139303</v>
       </c>
     </row>
     <row r="18">
@@ -1081,26 +1081,26 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.920098204539975</v>
+        <v>2.217040869270227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.165148559333919</v>
+        <v>4.395150235227038</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>4.620759710626984</v>
+        <v>4.062687946639372</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.503724330052858</v>
+        <v>3.620530813553414</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.793626991407154</v>
+        <v>1.942921732733317</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.530617316318789</v>
+        <v>3.194618972326065</v>
       </c>
     </row>
     <row r="19">
@@ -1210,7 +1210,7 @@
         <v>-1.995829123863766</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.020318674199351</v>
+        <v>-1.020318674199352</v>
       </c>
     </row>
     <row r="23">
@@ -1221,31 +1221,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.352926713201913</v>
+        <v>-3.296286895439486</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.612500862824458</v>
+        <v>-5.70709979379518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.190732587496858</v>
+        <v>-4.459798314905699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.521974009501877</v>
+        <v>-6.241974409021018</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.525866911400066</v>
+        <v>-6.161914597051461</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.468711176750809</v>
+        <v>-4.473812707331703</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.839844252165517</v>
+        <v>-2.81514046001044</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.401821651154584</v>
+        <v>-4.325529129013256</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.353809685334285</v>
+        <v>-3.349395651131423</v>
       </c>
     </row>
     <row r="24">
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.684359074471863</v>
+        <v>2.502445621006791</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8208500267345822</v>
+        <v>-0.8133484555617783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.056519349192436</v>
+        <v>0.8230013071773028</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.090448398369519</v>
+        <v>1.053255692455215</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.45474436842462</v>
+        <v>1.671689114199424</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.7790040358283101</v>
+        <v>-0.7837947352778855</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5267287020535137</v>
+        <v>0.6141727800086131</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
         <v>-1</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.511225466148172</v>
+        <v>-0.5112254661481721</v>
       </c>
     </row>
     <row r="26">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8938239886325743</v>
+        <v>-0.8939077049357456</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
@@ -1336,11 +1336,11 @@
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.891753068971241</v>
+        <v>-0.9155940707230169</v>
       </c>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>-0.9068360855593361</v>
+        <v>-0.8978111781178891</v>
       </c>
     </row>
     <row r="27">
@@ -1351,21 +1351,21 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.477949731616039</v>
+        <v>2.8117688431208</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>1.507749375712087</v>
+        <v>1.587986112640965</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>2.073430225650647</v>
+        <v>2.175686010831402</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>0.7706968933970876</v>
+        <v>1.055496363187728</v>
       </c>
     </row>
     <row r="28">
@@ -1395,7 +1395,7 @@
         <v>-3.505293952571783</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.8234426074426676</v>
+        <v>0.8234426074426683</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.07347469167132831</v>
@@ -1404,7 +1404,7 @@
         <v>-1.770669713874713</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.7270614962600668</v>
+        <v>-0.7270614962600666</v>
       </c>
     </row>
     <row r="29">
@@ -1415,31 +1415,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.259354901257351</v>
+        <v>-1.214028762758962</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.294533901578922</v>
+        <v>-5.298012331884846</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.56598977980638</v>
+        <v>-5.685789385688665</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-14.07721080853815</v>
+        <v>-17.95839131458158</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-17.23796969271916</v>
+        <v>-16.87276394925005</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.031169331490476</v>
+        <v>-7.379184986280592</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.269873306991464</v>
+        <v>-4.429779842049317</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.983109444658936</v>
+        <v>-7.257665373171879</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.201277492529433</v>
+        <v>-4.668481163109585</v>
       </c>
     </row>
     <row r="30">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.391343836605087</v>
+        <v>5.354885829545709</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0</v>
@@ -1465,16 +1465,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.80719408103924</v>
+        <v>14.2251608982574</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.403819270716537</v>
+        <v>2.524798818803962</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.508087695618401</v>
+        <v>2.093640214741853</v>
       </c>
     </row>
     <row r="31">
@@ -1500,7 +1500,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2349139953978809</v>
+        <v>0.2349139953978811</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.04149542463825479</v>
@@ -1509,7 +1509,7 @@
         <v>-1</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4106138432045895</v>
+        <v>-0.4106138432045894</v>
       </c>
     </row>
     <row r="32">
@@ -1582,7 +1582,7 @@
         <v>-0.6146117229804285</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.004266156770741</v>
+        <v>1.004266156770742</v>
       </c>
     </row>
     <row r="35">
@@ -1593,31 +1593,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.11774258180099</v>
+        <v>-2.327298002196443</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.230502901371748</v>
+        <v>-2.19815540508673</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.529433330501991</v>
+        <v>-1.437750013981541</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.04194176266961</v>
+        <v>-4.628584582384597</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.02984507633896</v>
+        <v>-4.629262496996113</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.533545431535646</v>
+        <v>-1.500200788114519</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.973835036794997</v>
+        <v>-1.975782109389054</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.940683758247961</v>
+        <v>-2.06278291927329</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.8090353889585988</v>
+        <v>-0.7558091788125861</v>
       </c>
     </row>
     <row r="36">
@@ -1628,13 +1628,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.224166709694594</v>
+        <v>1.424132112732384</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.162392044716246</v>
+        <v>1.176193190913229</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.119330860743555</v>
+        <v>3.097539776416697</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
@@ -1643,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.126202617881522</v>
+        <v>4.564658781484974</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.5159792438375972</v>
+        <v>0.7621057168569136</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.6872888415109852</v>
+        <v>0.414427594245887</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.872774510500904</v>
+        <v>2.99646103331721</v>
       </c>
     </row>
     <row r="37">
@@ -1687,7 +1687,7 @@
         <v>-0.6399329162720468</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.045640599400161</v>
+        <v>1.045640599400162</v>
       </c>
     </row>
     <row r="38">
@@ -1706,7 +1706,7 @@
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.6275479328393548</v>
+        <v>-0.6177741291134953</v>
       </c>
     </row>
     <row r="39">
@@ -1725,7 +1725,7 @@
       <c r="I39" s="6" t="inlineStr"/>
       <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>10.53818260439025</v>
+        <v>10.79686116086048</v>
       </c>
     </row>
     <row r="40">
@@ -1746,7 +1746,7 @@
         <v>0.01553537318676294</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.444303273383288</v>
+        <v>-0.4443032733832876</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.4777294494473114</v>
@@ -1755,7 +1755,7 @@
         <v>0.3865184164534659</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.922240827316195</v>
+        <v>2.922240827316194</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.08408306998062033</v>
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.235815873633765</v>
+        <v>-2.781811058054542</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.568679759806589</v>
+        <v>-2.571510419904733</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.059756658929921</v>
+        <v>-3.101238831824973</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>0</v>
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.9455601096762661</v>
+        <v>0.9195985628105754</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.729445101003905</v>
+        <v>-1.909837880943345</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.766075911737804</v>
+        <v>-1.77541447155317</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.4195973233798</v>
+        <v>-1.428304246973109</v>
       </c>
     </row>
     <row r="42">
@@ -1810,31 +1810,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.724594358497494</v>
+        <v>1.917149105242921</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.206086605841752</v>
+        <v>2.335986815962213</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.679152727316286</v>
+        <v>1.701210002343698</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.43288582206778</v>
+        <v>2.861141756180519</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.109961808844568</v>
+        <v>1.929852116642534</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.891192119640384</v>
+        <v>7.262701026159791</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.473567585335927</v>
+        <v>1.425454446199016</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.525945085787323</v>
+        <v>1.488790147119528</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.65433960899971</v>
+        <v>2.53937610020764</v>
       </c>
     </row>
     <row r="43">
@@ -1851,7 +1851,7 @@
         <v>0.006355170382066466</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1817544367757155</v>
+        <v>-0.1817544367757154</v>
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
@@ -1886,25 +1886,25 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7554973125031931</v>
+        <v>-0.7203900316681477</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6548537679400593</v>
+        <v>-0.6334684316703113</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.806853319252073</v>
+        <v>-0.783758939797918</v>
       </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="n">
-        <v>-0.6618871432288651</v>
+        <v>-0.6969087031215085</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.7020756610776445</v>
+        <v>-0.6729431855794862</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.6785338698888207</v>
+        <v>-0.5403188466828371</v>
       </c>
     </row>
     <row r="45">
@@ -1915,25 +1915,25 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.478292906004511</v>
+        <v>1.894602075730271</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.914172409694743</v>
+        <v>1.94699063700866</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.829300703812352</v>
+        <v>1.628163651827266</v>
       </c>
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
       <c r="I45" s="6" t="n">
-        <v>2.217935298158018</v>
+        <v>2.150373167475076</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.072753042879242</v>
+        <v>2.212608739645585</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.881999418878999</v>
+        <v>3.132517247524325</v>
       </c>
     </row>
     <row r="46">
@@ -1954,7 +1954,7 @@
         <v>-0.4784613503344344</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.4505785135639644</v>
+        <v>-0.4505785135639642</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.7938710568315052</v>
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.237842787655187</v>
+        <v>-1.24585692953603</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.776213392379956</v>
+        <v>-1.780597367303746</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.713732039264311</v>
+        <v>-1.743864162894061</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.70130523742524</v>
+        <v>-2.533391112027889</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.514125009459323</v>
+        <v>-2.119154126695302</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.418343585709085</v>
+        <v>-3.405077663332651</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.264988289221471</v>
+        <v>-1.173343864608903</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.529764208204494</v>
+        <v>-1.558964303286509</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.652285268794272</v>
+        <v>-1.701968593375597</v>
       </c>
     </row>
     <row r="48">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.160847642476603</v>
+        <v>2.31265400266214</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.818862511385605</v>
+        <v>0.9405189612144121</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.214223807807317</v>
+        <v>1.143600730323383</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.660187613038997</v>
+        <v>0.9445788851680497</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.315461949140122</v>
+        <v>1.326607918068135</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.4186939958533561</v>
+        <v>-0.4189430071686254</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.43554243422781</v>
+        <v>1.45717606932364</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.5549216788336417</v>
+        <v>0.6517332091012609</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.5934019394789295</v>
+        <v>0.6343718783169295</v>
       </c>
     </row>
     <row r="49">
@@ -2059,7 +2059,7 @@
         <v>-0.3391293199192078</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3193662032854853</v>
+        <v>-0.3193662032854852</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.624850622873134</v>
@@ -2088,25 +2088,25 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6679560556937458</v>
+        <v>-0.6681659652997307</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8561095741693933</v>
+        <v>-0.8631739605743516</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8896728863675987</v>
+        <v>-0.9009859071189529</v>
       </c>
       <c r="F50" s="6" t="inlineStr"/>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>-0.705017272740201</v>
+        <v>-0.6715177394068288</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.8144720554302148</v>
+        <v>-0.7843276373426182</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.9021007554561876</v>
+        <v>-0.9380705220772881</v>
       </c>
     </row>
     <row r="51">
@@ -2117,25 +2117,25 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.885735051434772</v>
+        <v>3.259803567792459</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.193294921703875</v>
+        <v>1.702716051418572</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.270890656383987</v>
+        <v>2.049904818273971</v>
       </c>
       <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>1.761781067908293</v>
+        <v>2.202396416082316</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.8051767688101404</v>
+        <v>0.9924425284280081</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.177608740982836</v>
+        <v>1.181693053799331</v>
       </c>
     </row>
     <row r="52">
@@ -2156,7 +2156,7 @@
         <v>-0.2624315852143378</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.6925258405170291</v>
+        <v>-0.6925258405170294</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-0.6224639335560446</v>
@@ -2185,31 +2185,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.7919098307752627</v>
+        <v>-0.7987914314226744</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.137781668381769</v>
+        <v>-1.0549947576733</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.561438161420521</v>
+        <v>-1.484053159641973</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.538102195668321</v>
+        <v>-1.497589316134516</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.305387215501302</v>
+        <v>-1.38169184209469</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.7125076215794478</v>
+        <v>-0.6005016085573891</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.7742132378682112</v>
+        <v>-0.8524003258136197</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.9591504698496331</v>
+        <v>-1.007811054414967</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-1.017857563832179</v>
+        <v>-1.061989225475125</v>
       </c>
     </row>
     <row r="54">
@@ -2220,31 +2220,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.9315533200221718</v>
+        <v>1.107180834374682</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.5127849282766767</v>
+        <v>0.6619770886877404</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.03609755696156174</v>
+        <v>0.1732107648644049</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.0128215125544342</v>
+        <v>0.0152507443209115</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.2937187928805597</v>
+        <v>0.2862428700146256</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.621890292964308</v>
+        <v>1.560382118501992</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.5284046864265234</v>
+        <v>0.4505220358791368</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.2925995501025294</v>
+        <v>0.2482985992079942</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.2785470690643696</v>
+        <v>0.3054668984104898</v>
       </c>
     </row>
     <row r="55">
@@ -2261,7 +2261,7 @@
         <v>-0.1399085628509789</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.3692021103510455</v>
+        <v>-0.3692021103510456</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.6807230235670996</v>
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.3324030326202347</v>
+        <v>-0.3610461478788549</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.4860115628541744</v>
+        <v>-0.4709512883834293</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.6596913381860458</v>
+        <v>-0.6379188108947157</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.9349545146906074</v>
+        <v>-1</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.8644195752783466</v>
+        <v>-0.8580898915778017</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.5785512770760051</v>
+        <v>-0.5604662853128585</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.4153889102817447</v>
+        <v>-0.4392578807727551</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4983109229777724</v>
+        <v>-0.5084518801521393</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.5135057029386554</v>
+        <v>-0.5395339681945857</v>
       </c>
     </row>
     <row r="57">
@@ -2325,31 +2325,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6356595420249735</v>
+        <v>0.7394413733598499</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3493648776071345</v>
+        <v>0.4249703980381495</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.06838443432362111</v>
+        <v>0.1192902570761392</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4942680955437116</v>
+        <v>0.3296846138147117</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.8804556193222486</v>
+        <v>0.643531822284846</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>3.846427560139432</v>
+        <v>3.141584877726153</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4099941886665271</v>
+        <v>0.3729012918452119</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2480405960747986</v>
+        <v>0.2408706877458691</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2433555634022638</v>
+        <v>0.2334689465236724</v>
       </c>
     </row>
     <row r="58">
